--- a/UnitTestProject3/TestDataAccess/TestData.xlsx
+++ b/UnitTestProject3/TestDataAccess/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Key</t>
   </si>
@@ -28,13 +28,22 @@
     <t>LoginTest</t>
   </si>
   <si>
-    <t>Testclinic4@3shapecommunicate.com</t>
+    <t>SearchTest</t>
+  </si>
+  <si>
+    <t>CaseId</t>
+  </si>
+  <si>
+    <t>3f531661-4610-40ea-8c3f-7ff2791991d0</t>
+  </si>
+  <si>
+    <t>TestClinic2016@spam4.me</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,8 +97,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -105,9 +114,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +154,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -180,6 +189,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -215,9 +241,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -391,15 +434,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -412,24 +456,35 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>123456</v>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/UnitTestProject3/TestDataAccess/TestData.xlsx
+++ b/UnitTestProject3/TestDataAccess/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Key</t>
   </si>
@@ -25,19 +25,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>LoginTest</t>
-  </si>
-  <si>
-    <t>SearchTest</t>
-  </si>
-  <si>
     <t>CaseId</t>
   </si>
   <si>
-    <t>3f531661-4610-40ea-8c3f-7ff2791991d0</t>
-  </si>
-  <si>
     <t>TestClinic2016@spam4.me</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -434,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,26 +454,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTestProject3/TestDataAccess/TestData.xlsx
+++ b/UnitTestProject3/TestDataAccess/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -31,16 +31,16 @@
     <t>TestClinic2016@spam4.me</t>
   </si>
   <si>
-    <t>bbb</t>
-  </si>
-  <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>7c2558ed-c15b-488f-a60a-607385e9e2a2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,8 +94,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -111,9 +111,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +151,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -186,23 +186,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -238,26 +221,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,7 +425,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -468,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTestProject3/TestDataAccess/TestData.xlsx
+++ b/UnitTestProject3/TestDataAccess/TestData.xlsx
@@ -41,7 +41,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +66,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -88,10 +95,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -397,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,6 +445,9 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/UnitTestProject3/TestDataAccess/TestData.xlsx
+++ b/UnitTestProject3/TestDataAccess/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Key</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>7c2558ed-c15b-488f-a60a-607385e9e2a2</t>
+  </si>
+  <si>
+    <t>testclinic4@3shapecommunicate.com</t>
+  </si>
+  <si>
+    <t>9f4a5098-9e5c-4c4c-9a8e-17013ae36b23</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,6 +454,17 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="3"/>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>123456</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>

--- a/UnitTestProject3/TestDataAccess/TestData.xlsx
+++ b/UnitTestProject3/TestDataAccess/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Key</t>
   </si>
@@ -41,12 +41,39 @@
   </si>
   <si>
     <t>9f4a5098-9e5c-4c4c-9a8e-17013ae36b23</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>C:/Users/Vadym Diakov/Desktop/New folder/autumn.png</t>
+  </si>
+  <si>
+    <t>AddCommentWithImageResponse</t>
+  </si>
+  <si>
+    <t>comment with image added</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>testlab4@3shapecommunicate.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,8 +135,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -125,9 +152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -165,7 +192,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -200,6 +227,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -235,9 +279,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,19 +472,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,10 +501,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -450,11 +524,34 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -469,8 +566,9 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/UnitTestProject3/TestDataAccess/TestData.xlsx
+++ b/UnitTestProject3/TestDataAccess/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Key</t>
   </si>
@@ -22,58 +22,67 @@
     <t>Email</t>
   </si>
   <si>
+    <t>CaseId</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>7c2558ed-c15b-488f-a60a-607385e9e2a2</t>
+  </si>
+  <si>
+    <t>testclinic4@3shapecommunicate.com</t>
+  </si>
+  <si>
+    <t>9f4a5098-9e5c-4c4c-9a8e-17013ae36b23</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>C:/Users/Vadym Diakov/Desktop/New folder/autumn.png</t>
+  </si>
+  <si>
+    <t>AddCommentWithImageResponse</t>
+  </si>
+  <si>
+    <t>comment with image added</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>CaseId</t>
-  </si>
-  <si>
-    <t>TestClinic2016@spam4.me</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>7c2558ed-c15b-488f-a60a-607385e9e2a2</t>
-  </si>
-  <si>
-    <t>testclinic4@3shapecommunicate.com</t>
-  </si>
-  <si>
-    <t>9f4a5098-9e5c-4c4c-9a8e-17013ae36b23</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>FilePath</t>
-  </si>
-  <si>
-    <t>C:/Users/Vadym Diakov/Desktop/New folder/autumn.png</t>
-  </si>
-  <si>
-    <t>AddCommentWithImageResponse</t>
-  </si>
-  <si>
-    <t>comment with image added</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Clinic</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>testlab4@3shapecommunicate.com</t>
+    <t>connection request was sent</t>
+  </si>
+  <si>
+    <t>ExpectedResponseToConnectionRequest</t>
+  </si>
+  <si>
+    <t>UiTestClinic@spam4.me</t>
+  </si>
+  <si>
+    <t>UiTestLab@spam4.me</t>
+  </si>
+  <si>
+    <t>ColloboratorEmail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -135,8 +144,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -152,9 +161,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -192,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -227,23 +236,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -279,26 +271,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,9 +461,11 @@
     <col min="4" max="4" width="38.28515625" customWidth="1"/>
     <col min="6" max="6" width="53" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,70 +473,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>123456</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -567,8 +556,11 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="I2" r:id="rId5"/>
+    <hyperlink ref="I3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/UnitTestProject3/TestDataAccess/TestData.xlsx
+++ b/UnitTestProject3/TestDataAccess/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -28,9 +28,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>7c2558ed-c15b-488f-a60a-607385e9e2a2</t>
-  </si>
-  <si>
     <t>testclinic4@3shapecommunicate.com</t>
   </si>
   <si>
@@ -77,12 +74,15 @@
   </si>
   <si>
     <t>ColloboratorEmail</t>
+  </si>
+  <si>
+    <t>4b407ed9-87d0-4dc3-b34b-51f0ab794afa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,8 +144,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -161,9 +161,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -236,6 +236,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -271,9 +288,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,68 +507,68 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -542,13 +576,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTestProject3/TestDataAccess/TestData.xlsx
+++ b/UnitTestProject3/TestDataAccess/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -40,9 +40,6 @@
     <t>FilePath</t>
   </si>
   <si>
-    <t>C:/Users/Vadym Diakov/Desktop/New folder/autumn.png</t>
-  </si>
-  <si>
     <t>AddCommentWithImageResponse</t>
   </si>
   <si>
@@ -77,12 +74,15 @@
   </si>
   <si>
     <t>4b407ed9-87d0-4dc3-b34b-51f0ab794afa</t>
+  </si>
+  <si>
+    <t>D:/Files/autumn.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,8 +144,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -161,9 +161,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -236,23 +236,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -288,26 +271,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -484,7 +450,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -519,56 +485,56 @@
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -576,7 +542,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
